--- a/Doc/协议栈.xlsx
+++ b/Doc/协议栈.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\78286\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Case\case-STM32\190109_Graduation_project\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2908C8D9-746B-4D07-BD2F-DBDCFB45D558}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9EB7E1-8955-403B-9A48-99C7401F18F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-7650" windowWidth="29040" windowHeight="15990" xr2:uid="{703CD850-5626-4CFD-813A-7DEB6F38C04E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>节点向汇集点传输温湿度数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,10 @@
   </si>
   <si>
     <t>和校验[0~10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(接收到之后会去掉前两个字节)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704C6585-8AD8-47C4-AB25-22031B5B22C7}">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11:T11"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -473,12 +477,12 @@
     <col min="12" max="12" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -516,7 +520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -554,7 +558,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -578,15 +582,72 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>9</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <v>11</v>
+      </c>
+      <c r="O8">
+        <v>12</v>
+      </c>
+      <c r="P8">
+        <v>13</v>
+      </c>
+      <c r="Q8">
+        <v>14</v>
+      </c>
+      <c r="R8">
+        <v>15</v>
+      </c>
+      <c r="S8">
+        <v>16</v>
+      </c>
+      <c r="T8">
+        <v>17</v>
+      </c>
+      <c r="U8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -648,7 +709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -710,7 +771,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -746,7 +807,7 @@
       </c>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -754,7 +815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>

--- a/Doc/协议栈.xlsx
+++ b/Doc/协议栈.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Case\case-STM32\190109_Graduation_project\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9EB7E1-8955-403B-9A48-99C7401F18F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F100A53F-09D1-45CF-9C92-D4B7A411D237}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-7650" windowWidth="29040" windowHeight="15990" xr2:uid="{703CD850-5626-4CFD-813A-7DEB6F38C04E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{703CD850-5626-4CFD-813A-7DEB6F38C04E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="190306" sheetId="2" r:id="rId1"/>
+    <sheet name="190303" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>节点向汇集点传输温湿度数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +97,43 @@
   </si>
   <si>
     <t>(接收到之后会去掉前两个字节)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标短地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变长数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据长度(自目标短地址到包结束)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC(变长数据的CRC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变长数据长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和校验
+[2…6]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -151,6 +189,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,11 +512,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA6105C-881D-41DE-A505-8BD27211F530}">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2">
+        <v>7</v>
+      </c>
+      <c r="L3" s="2">
+        <v>8</v>
+      </c>
+      <c r="M3" s="2">
+        <v>9</v>
+      </c>
+      <c r="N3" s="2">
+        <v>10</v>
+      </c>
+      <c r="O3" s="2">
+        <v>11</v>
+      </c>
+      <c r="P3" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704C6585-8AD8-47C4-AB25-22031B5B22C7}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -559,22 +754,22 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="1" t="s">
         <v>11</v>
       </c>
@@ -778,34 +973,34 @@
       <c r="B11">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
       <c r="Q11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="S11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T11" s="2"/>
+      <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -828,30 +1023,30 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
       <c r="Q13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="S13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="2"/>
+      <c r="T13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Doc/协议栈.xlsx
+++ b/Doc/协议栈.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Case\case-STM32\190109_Graduation_project\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F100A53F-09D1-45CF-9C92-D4B7A411D237}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF329EC7-2F9B-4439-93D7-C2E89E6FB5EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{703CD850-5626-4CFD-813A-7DEB6F38C04E}"/>
+    <workbookView xWindow="-28920" yWindow="-7650" windowWidth="29040" windowHeight="15990" xr2:uid="{703CD850-5626-4CFD-813A-7DEB6F38C04E}"/>
   </bookViews>
   <sheets>
     <sheet name="190306" sheetId="2" r:id="rId1"/>
@@ -120,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据长度(自目标短地址到包结束)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CRC(变长数据的CRC)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,6 +130,10 @@
   <si>
     <t>和校验
 [2…6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧长度(自目标短地址到包结束)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,10 +191,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -516,7 +516,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -581,22 +581,22 @@
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>21</v>
@@ -754,22 +754,22 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="1" t="s">
         <v>11</v>
       </c>
@@ -973,34 +973,34 @@
       <c r="B11">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
       <c r="Q11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="S11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="T11" s="3"/>
+      <c r="T11" s="4"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1023,30 +1023,30 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
       <c r="Q13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="S13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="3"/>
+      <c r="T13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
